--- a/BNP Trades Tracker-2025-10-2.xlsx
+++ b/BNP Trades Tracker-2025-10-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\57. BNP Trades Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71184DB1-22AB-49F7-B59C-313A8361FB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942CC4FD-AE18-4E57-94FD-31EE3AB45966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="924" yWindow="936" windowWidth="21624" windowHeight="11304" tabRatio="842" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACAFP Basis" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -785,67 +785,67 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...1967280490</v>
+        <v>#N/A Requesting Data...1663650218</v>
         <stp/>
         <stp>BDH|17406990340420006085</stp>
         <tr r="M3" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2842293879</v>
+        <v>#N/A Requesting Data...2583853712</v>
         <stp/>
         <stp>BDH|17025065732334631929</stp>
         <tr r="G3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2758693900</v>
+        <v>#N/A Requesting Data...2200773204</v>
         <stp/>
         <stp>BDP|16545953933052450030</stp>
         <tr r="B10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1929203704</v>
+        <v>#N/A Requesting Data...4243975568</v>
         <stp/>
         <stp>BDH|11562898034066468052</stp>
         <tr r="I3" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2230092536</v>
+        <v>#N/A Requesting Data...4284645195</v>
         <stp/>
         <stp>BDH|16498634595275479111</stp>
         <tr r="G3" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2886169329</v>
+        <v>#N/A Requesting Data...1613251961</v>
         <stp/>
         <stp>BDP|12076286461161277423</stp>
         <tr r="C10" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2217236744</v>
+        <v>#N/A Requesting Data...3982130409</v>
         <stp/>
         <stp>BDH|15717892311558484522</stp>
         <tr r="J3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2670464811</v>
+        <v>#N/A Requesting Data...2567880581</v>
         <stp/>
         <stp>BDH|11251505541444195234</stp>
         <tr r="E3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2820997878</v>
+        <v>#N/A Requesting Data...3418210837</v>
         <stp/>
         <stp>BDP|14572736216992007722</stp>
         <tr r="B10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2475775306</v>
+        <v>#N/A Requesting Data...1239218056</v>
         <stp/>
         <stp>BDP|13060443244535072213</stp>
         <tr r="B10" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1529118367</v>
+        <v>#N/A Requesting Data...3003731026</v>
         <stp/>
         <stp>BDP|17166731865344641740</stp>
         <tr r="C10" s="1"/>
@@ -853,91 +853,91 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2489820808</v>
+        <v>#N/A Requesting Data...1876653015</v>
         <stp/>
         <stp>BDH|8246345074955910435</stp>
         <tr r="H3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1589976856</v>
+        <v>#N/A Requesting Data...3797879064</v>
         <stp/>
         <stp>BDH|4893848110648356880</stp>
         <tr r="E3" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3886628398</v>
+        <v>#N/A Requesting Data...3306363317</v>
         <stp/>
         <stp>BDH|7309047882271168008</stp>
         <tr r="F3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3913366212</v>
+        <v>#N/A Requesting Data...3886746819</v>
         <stp/>
         <stp>BDP|9706553668206945454</stp>
         <tr r="D10" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1961490202</v>
+        <v>#N/A Requesting Data...3865864494</v>
         <stp/>
         <stp>BDH|7914485158816264428</stp>
         <tr r="N3" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2922425986</v>
+        <v>#N/A Requesting Data...3478769605</v>
         <stp/>
         <stp>BDH|7017788451461123183</stp>
         <tr r="K3" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3557453193</v>
+        <v>#N/A Requesting Data...3821451366</v>
         <stp/>
         <stp>BDH|9195768911232825899</stp>
         <tr r="G3" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3439863605</v>
+        <v>#N/A Requesting Data...3813331076</v>
         <stp/>
         <stp>BDP|1931107217112743305</stp>
         <tr r="D10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1803978517</v>
+        <v>#N/A Requesting Data...4225810943</v>
         <stp/>
         <stp>BDP|8919074471278682748</stp>
         <tr r="C10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3256473192</v>
+        <v>#N/A Requesting Data...3377165212</v>
         <stp/>
         <stp>BDP|6499873574608943180</stp>
         <tr r="B10" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3080075844</v>
+        <v>#N/A Requesting Data...2452065597</v>
         <stp/>
         <stp>BDP|9073119891745028595</stp>
         <tr r="E10" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1746722765</v>
+        <v>#N/A Requesting Data...2003091995</v>
         <stp/>
         <stp>BDP|4720520890802409863</stp>
         <tr r="B10" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2951939023</v>
+        <v>#N/A Requesting Data...2459491440</v>
         <stp/>
         <stp>BDP|2192385730727379645</stp>
         <tr r="C10" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1917507822</v>
+        <v>#N/A Requesting Data...3345633129</v>
         <stp/>
         <stp>BDH|457184243879678801</stp>
         <tr r="L3" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3720974789</v>
+        <v>#N/A Requesting Data...3132114019</v>
         <stp/>
         <stp>BDP|416056535068485843</stp>
         <tr r="C10" s="2"/>
@@ -1028,14 +1028,53 @@
               <c:f>'ACAFP Basis'!$A$15:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>45904</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>45905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45910</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45911</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45915</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45916</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45917</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45918</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45919</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45922</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45923</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>45924</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="16">
                   <c:v>45925</c:v>
                 </c:pt>
               </c:numCache>
@@ -1046,14 +1085,53 @@
               <c:f>'ACAFP Basis'!$I$15:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>20572.519958333647</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>18236.58391666643</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757.170791666686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63393.419749999666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61094.388208332988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90173.865666666854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74992.472625000097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81807.740500000044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60914.435958333328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74009.595416666678</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33945.590374999971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26106.814333333008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32354.597708333502</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32365.614166666328</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>34935.891624999553</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="16">
                   <c:v>32388.287583332876</c:v>
                 </c:pt>
               </c:numCache>
@@ -5651,8 +5729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5872,7 +5950,7 @@
       </c>
       <c r="M6" s="3">
         <f ca="1"/>
-        <v>102.608</v>
+        <v>102.07299999999999</v>
       </c>
       <c r="N6" s="53">
         <f ca="1"/>
@@ -5880,7 +5958,7 @@
       </c>
       <c r="O6" s="3">
         <f ca="1"/>
-        <v>100.947</v>
+        <v>101.166</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -5934,11 +6012,11 @@
       </c>
       <c r="B10" s="20" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"PX_LAST")</f>
-        <v>102.6079</v>
+        <v>102.0728</v>
       </c>
       <c r="C10" s="13" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"PX_LAST")</f>
-        <v>100.947</v>
+        <v>101.166</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="1"/>
@@ -6061,7 +6139,7 @@
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
         <v>45905</v>
       </c>
@@ -6096,7 +6174,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="37">
         <v>45908</v>
       </c>
@@ -6131,7 +6209,7 @@
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="37">
         <v>45909</v>
       </c>
@@ -6166,7 +6244,7 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="37">
         <v>45910</v>
       </c>
@@ -6201,7 +6279,7 @@
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="37">
         <v>45911</v>
       </c>
@@ -6236,7 +6314,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="37">
         <v>45912</v>
       </c>
@@ -6271,7 +6349,7 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="37">
         <v>45915</v>
       </c>
@@ -6306,7 +6384,7 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="37">
         <v>45916</v>
       </c>
@@ -6341,7 +6419,7 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="37">
         <v>45917</v>
       </c>
@@ -6376,7 +6454,7 @@
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="37">
         <v>45918</v>
       </c>
@@ -6411,7 +6489,7 @@
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="37">
         <v>45919</v>
       </c>
@@ -6446,7 +6524,7 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="33" t="s">
         <v>22</v>
@@ -6460,7 +6538,7 @@
       <c r="I27" s="39"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="37">
         <v>45922</v>
       </c>
@@ -6496,7 +6574,7 @@
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="37">
         <v>45923</v>
       </c>
@@ -7082,7 +7160,7 @@
       </c>
       <c r="G6" s="1">
         <f ca="1"/>
-        <v>46.104999999999997</v>
+        <v>46.16</v>
       </c>
       <c r="H6" s="54">
         <f ca="1"/>
@@ -7090,7 +7168,7 @@
       </c>
       <c r="I6" s="1">
         <f ca="1"/>
-        <v>33.92</v>
+        <v>33.387</v>
       </c>
       <c r="J6" s="54">
         <f ca="1"/>
@@ -7098,7 +7176,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1"/>
-        <v>48.863999999999997</v>
+        <v>48.345999999999997</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -7168,15 +7246,15 @@
       </c>
       <c r="B10" s="21" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"px_last")</f>
-        <v>46.104930000000003</v>
+        <v>46.159860000000002</v>
       </c>
       <c r="C10" s="21" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>33.920169999999999</v>
+        <v>33.386569999999999</v>
       </c>
       <c r="D10" s="22" cm="1">
         <f t="array" ref="D10">_xll.BDP(D4,"px_last")</f>
-        <v>48.864150000000002</v>
+        <v>48.346229999999998</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -8071,7 +8149,7 @@
       </c>
       <c r="F6" s="1">
         <f ca="1"/>
-        <v>57.084000000000003</v>
+        <v>57.076000000000001</v>
       </c>
       <c r="G6" s="54">
         <f ca="1"/>
@@ -8079,7 +8157,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1"/>
-        <v>39.21</v>
+        <v>39.460999999999999</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -8137,11 +8215,11 @@
       </c>
       <c r="B10" s="21" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"px_last")</f>
-        <v>57.08361</v>
+        <v>57.07602</v>
       </c>
       <c r="C10" s="22" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>39.21022</v>
+        <v>39.46058</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -8860,7 +8938,7 @@
       </c>
       <c r="F6" s="1">
         <f ca="1"/>
-        <v>94.863</v>
+        <v>94.879000000000005</v>
       </c>
       <c r="G6" s="54">
         <f ca="1"/>
@@ -8868,7 +8946,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1"/>
-        <v>106.093</v>
+        <v>106.16800000000001</v>
       </c>
       <c r="I6" s="1"/>
       <c r="K6" s="74"/>
@@ -8931,11 +9009,11 @@
       </c>
       <c r="B10" s="11" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"px_last")</f>
-        <v>94.863</v>
+        <v>94.879000000000005</v>
       </c>
       <c r="C10" s="22" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>106.093</v>
+        <v>106.16800000000001</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -9440,7 +9518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1282A558-2182-4AF5-B3B3-E5912781804D}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -9679,7 +9757,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1"/>
-        <v>100.89</v>
+        <v>100.88500000000001</v>
       </c>
       <c r="I6" s="54">
         <f ca="1"/>
@@ -9687,7 +9765,7 @@
       </c>
       <c r="J6" s="1">
         <f ca="1"/>
-        <v>101.1875</v>
+        <v>101.3125</v>
       </c>
       <c r="K6" s="54">
         <f ca="1"/>
@@ -9695,7 +9773,7 @@
       </c>
       <c r="L6" s="1">
         <f ca="1"/>
-        <v>94.700999999999993</v>
+        <v>94.808000000000007</v>
       </c>
       <c r="M6" s="54">
         <f ca="1"/>
@@ -9703,7 +9781,7 @@
       </c>
       <c r="N6" s="55">
         <f ca="1"/>
-        <v>100.5</v>
+        <v>100.8203125</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -9785,19 +9863,19 @@
       </c>
       <c r="B10" s="11" cm="1">
         <f t="array" ref="B10">_xll.BDP(B4,"px_last")</f>
-        <v>100.89</v>
+        <v>100.88500000000001</v>
       </c>
       <c r="C10" s="21" cm="1">
         <f t="array" ref="C10">_xll.BDP(C4,"px_last")</f>
-        <v>101.203125</v>
+        <v>101.328125</v>
       </c>
       <c r="D10" s="21" cm="1">
         <f t="array" ref="D10">_xll.BDP(D4,"px_last")</f>
-        <v>94.700999999999993</v>
+        <v>94.808000000000007</v>
       </c>
       <c r="E10" s="22" cm="1">
         <f t="array" ref="E10">_xll.BDP(E4,"px_last")</f>
-        <v>100.515625</v>
+        <v>100.84375</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
